--- a/biology/Médecine/1469_en_santé_et_médecine/1469_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1469_en_santé_et_médecine/1469_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1469_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1469_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1469 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1469_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1469_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Août-octobre : au moyen de bandages et de substances pharmaceutiques livrées par l'apothicaire Pietre de Willemszonne, Jean Bruninc (fl. 1461-1477), diplômé de Louvain, un des premiers chirurgiens issus d'une université, donne ses soins au duc de Bourgogne affligé d'un « clou »[1].
-L'université de Bourges reçoit ses lettres patentes[2] et dispose de quatre « matières » ou facultés : médecine, théologie, arts et droit.
-L'enseignement de la médecine est attesté pour la première fois à l'université de Glasgow (fondée en 1451), lorsqu'un certain Andrew de Garleis y est enregistré comme docteur en médecine[3].
-Construction à Aix, alors capitale de la Provence, d'un petit hôpital consacré à saint Eutrope et voué à l'accueil des hydropiques[4].
-Une des causes des rébellions qui éclatent dans le Yorkshire semblerait être le refus, probablement suscité par les factieux de Warwick, de payer les taxes traditionnellement levées par l'hôpital Saint-Léonard d'York[5].
-Louis de Bourbon, prince-évêque de Liège, érige la maison-mère de la confrérie des Alexiens, située à Aix-la-Chapelle, en couvent de l'ordre de Saint-Augustin[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Août-octobre : au moyen de bandages et de substances pharmaceutiques livrées par l'apothicaire Pietre de Willemszonne, Jean Bruninc (fl. 1461-1477), diplômé de Louvain, un des premiers chirurgiens issus d'une université, donne ses soins au duc de Bourgogne affligé d'un « clou ».
+L'université de Bourges reçoit ses lettres patentes et dispose de quatre « matières » ou facultés : médecine, théologie, arts et droit.
+L'enseignement de la médecine est attesté pour la première fois à l'université de Glasgow (fondée en 1451), lorsqu'un certain Andrew de Garleis y est enregistré comme docteur en médecine.
+Construction à Aix, alors capitale de la Provence, d'un petit hôpital consacré à saint Eutrope et voué à l'accueil des hydropiques.
+Une des causes des rébellions qui éclatent dans le Yorkshire semblerait être le refus, probablement suscité par les factieux de Warwick, de payer les taxes traditionnellement levées par l'hôpital Saint-Léonard d'York.
+Louis de Bourbon, prince-évêque de Liège, érige la maison-mère de la confrérie des Alexiens, située à Aix-la-Chapelle, en couvent de l'ordre de Saint-Augustin.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1469_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1469_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition de l'Histoire naturelle, de Pline (23-79), imprimée à Venise par Jean de Spire[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition de l'Histoire naturelle, de Pline (23-79), imprimée à Venise par Jean de Spire.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1469_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1469_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Février : Jérôme Accoramboni (mort en 1537), médecin italien des papes Léon X, Clément VII et Paul III[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Février : Jérôme Accoramboni (mort en 1537), médecin italien des papes Léon X, Clément VII et Paul III.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1469_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1469_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15 juillet : Jean de Neele (né à une date inconnue), maître ès arts et docteur en médecine, professeur de médecine à Louvain, père de Zébart de Neele († 1463), médecin pensionnaire de la ville de Mons[9].
-Roland l'Écrivain (né à une date inconnue), médecin et astrologue d'origine probablement portugaise, au service de Jean de Lancastre puis de Philippe le Bon[10].
-Benedetto Reguardati[11] (né vers 1398), médecin de Sixte IV et de François Sforza, auteur d'un traité sur la peste (De pestilentia) et d'un « régime de santé » (Libellus de conservatione sanitatis) destiné à Astorgio Agnensi, archevêque d'Ancône et de Numana et gouverneur de la Marche d'Ancône[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15 juillet : Jean de Neele (né à une date inconnue), maître ès arts et docteur en médecine, professeur de médecine à Louvain, père de Zébart de Neele († 1463), médecin pensionnaire de la ville de Mons.
+Roland l'Écrivain (né à une date inconnue), médecin et astrologue d'origine probablement portugaise, au service de Jean de Lancastre puis de Philippe le Bon.
+Benedetto Reguardati (né vers 1398), médecin de Sixte IV et de François Sforza, auteur d'un traité sur la peste (De pestilentia) et d'un « régime de santé » (Libellus de conservatione sanitatis) destiné à Astorgio Agnensi, archevêque d'Ancône et de Numana et gouverneur de la Marche d'Ancône.</t>
         </is>
       </c>
     </row>
